--- a/22nov/scrap.xlsx
+++ b/22nov/scrap.xlsx
@@ -1,37 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR4EMPDNDt735qMcsI4UxASK2Wc6QOt7jcKYYM1pmo4LVwBh6a1-2NebX6oBg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkgp7USInZqGp4eNgCnuWAzXDZvqTzWrdiOQ2vz5r6BA0DVrCamBA9g2APz64&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRYjQZkydIul1RRPhThgrTWAqKvar5UTJbSnqmUwpZrLDnte-pqJOd2-TNAzEs&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQIoILpSAtXUbZIqPEPbyJBINrviBOXBNhw1oaZZPdmaidNwXXBcIB_BZ3S3g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT3U5fYeRW_Lk5Mre5-sI08HZ3Fj_iG6WZKClqWm6VTyHpgDiSMJkWQu7AYRw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSlsGg_3DU5v9cMftHYeF7O9iDAZygLpktPAPDpjbpxmkZTekegbSbUNWE1VPI&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQJJTtQkzNxkpSxakoir2eFZFhr_iLKOosxfq534i6hvg5SWMUQin1bYb2S7Yk&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ4_jpwpiE08Ow38k7SWGwqIY1iBBdcq9BKL9jWjfi6B-bwjubBgyrr0zT66DM&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTKm6MUqtTqHzKSI3RLniroeBQ6uUdZZnQ_Lv1L7_pgH6_UPYmqRfMSBc-M5g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTkgMdejsFOKOF_46fUl1wNTmpqCmIoj6BWt05QRV8ek5bsjTh6Y3nPM8rvOw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTJ3_Xrl9kGFmp8ICmOeWBz2OvElzClRPX4SYzFOa_gNQFMqqX1UlvuMFBwgP8&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRoeI2TwCQSWGAQvVSn0Lsfpc0pOdEyl2xOK1cHyWPhLl42DJ2hWYyIXn_oICg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRgGRISjr4gLAhKepNr20kuJ4z1RgblY6PZiHBbEJQA50H7AlbJJFrvLePekk4&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT83QM28vl3lP98DfmK9r0lV0ofvBa6-hitWzd45pgEQYrdoTQCRG41ggc0mSc&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRGn1ZirMEqO2-bI9-xk4uk2GD_4ggmCRyJGZl5EMVmPyv3vuyIQtP68vLn9VE&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQjqbwzv2xt6IXNQ4KDU-Qwm9HB0TFEjQEaBGfixtK08A7NzCz-Tmqg8DSwLQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRTXTnwfPDfsSiM_sN0Z7gi6MTq-FjIOCzOuIc_V-NEPjAB1lPyYfcdqPl1ES4&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRYCZAAtlRWCmr_gHaR3nwujjyP18AsIJO1R8uFJKD_fb1VgM8P-2l3MxlV5w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSNUzrapI9wuMPVDSdX2xABgV4v9Fal4R8BcoXr2VdV__hXZV3WUX8LohiusQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRe2qEMJ2KfKYeAMjIIx5ZAwLA2-lfgXu--gtc6mjDTEe7w65aD-10peAXm4Q&amp;s</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +121,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,225 +443,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR4EMPDNDt735qMcsI4UxASK2Wc6QOt7jcKYYM1pmo4LVwBh6a1-2NebX6oBg&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQIoILpSAtXUbZIqPEPbyJBINrviBOXBNhw1oaZZPdmaidNwXXBcIB_BZ3S3g&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkgp7USInZqGp4eNgCnuWAzXDZvqTzWrdiOQ2vz5r6BA0DVrCamBA9g2APz64&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRYjQZkydIul1RRPhThgrTWAqKvar5UTJbSnqmUwpZrLDnte-pqJOd2-TNAzEs&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ4_jpwpiE08Ow38k7SWGwqIY1iBBdcq9BKL9jWjfi6B-bwjubBgyrr0zT66DM&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQJJTtQkzNxkpSxakoir2eFZFhr_iLKOosxfq534i6hvg5SWMUQin1bYb2S7Yk&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSlsGg_3DU5v9cMftHYeF7O9iDAZygLpktPAPDpjbpxmkZTekegbSbUNWE1VPI&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTKm6MUqtTqHzKSI3RLniroeBQ6uUdZZnQ_Lv1L7_pgH6_UPYmqRfMSBc-M5g&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTkgMdejsFOKOF_46fUl1wNTmpqCmIoj6BWt05QRV8ek5bsjTh6Y3nPM8rvOw&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSvTI4DtPNFlNLMo_mLNj6vqpqKdwtdKr3NbLu8wi-GQZVpuR7y61-EoMR1q60&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRe2qEMJ2KfKYeAMjIIx5ZAwLA2-lfgXu--gtc6mjDTEe7w65aD-10peAXm4Q&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRoeI2TwCQSWGAQvVSn0Lsfpc0pOdEyl2xOK1cHyWPhLl42DJ2hWYyIXn_oICg&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTJ3_Xrl9kGFmp8ICmOeWBz2OvElzClRPX4SYzFOa_gNQFMqqX1UlvuMFBwgP8&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQjqbwzv2xt6IXNQ4KDU-Qwm9HB0TFEjQEaBGfixtK08A7NzCz-Tmqg8DSwLQ&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRGn1ZirMEqO2-bI9-xk4uk2GD_4ggmCRyJGZl5EMVmPyv3vuyIQtP68vLn9VE&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRgGRISjr4gLAhKepNr20kuJ4z1RgblY6PZiHBbEJQA50H7AlbJJFrvLePekk4&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT83QM28vl3lP98DfmK9r0lV0ofvBa6-hitWzd45pgEQYrdoTQCRG41ggc0mSc&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRTXTnwfPDfsSiM_sN0Z7gi6MTq-FjIOCzOuIc_V-NEPjAB1lPyYfcdqPl1ES4&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSNUzrapI9wuMPVDSdX2xABgV4v9Fal4R8BcoXr2VdV__hXZV3WUX8LohiusQ&amp;s</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS7Yjtqjdd1IV3g5LdCiLkBAuLobpNG4O0etHYgAVJGQ74y3Qjh4h-s65LFp7k&amp;s</t>
-        </is>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>